--- a/output/ValueSet-TreatmentType.xlsx
+++ b/output/ValueSet-TreatmentType.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.arkhn.com/osiris/ValueSet/TreatmentType</t>
+    <t>https://build.fhir.org/ig/arkhn/arkhn-ig-osiris/ValueSet/TreatmentType</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:52:24+01:00</t>
+    <t>2023-03-28T11:28:20+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-TreatmentType.xlsx
+++ b/output/ValueSet-TreatmentType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:28:20+02:00</t>
+    <t>2023-03-28T11:43:34+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-TreatmentType.xlsx
+++ b/output/ValueSet-TreatmentType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:43:34+02:00</t>
+    <t>2023-03-28T12:16:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-TreatmentType.xlsx
+++ b/output/ValueSet-TreatmentType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T12:16:37+02:00</t>
+    <t>2023-04-06T18:12:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-TreatmentType.xlsx
+++ b/output/ValueSet-TreatmentType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T18:12:15+02:00</t>
+    <t>2023-04-06T19:36:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-TreatmentType.xlsx
+++ b/output/ValueSet-TreatmentType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T19:36:35+02:00</t>
+    <t>2023-04-10T11:48:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-TreatmentType.xlsx
+++ b/output/ValueSet-TreatmentType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-10T11:48:35+02:00</t>
+    <t>2023-04-12T16:34:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-TreatmentType.xlsx
+++ b/output/ValueSet-TreatmentType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:34:31+02:00</t>
+    <t>2023-04-14T09:19:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-TreatmentType.xlsx
+++ b/output/ValueSet-TreatmentType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:19:10+02:00</t>
+    <t>2023-04-25T09:25:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-TreatmentType.xlsx
+++ b/output/ValueSet-TreatmentType.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T09:25:14+02:00</t>
+    <t>2023-05-04T10:39:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Monoclonal antibody</t>
+  </si>
+  <si>
+    <t>C93352</t>
+  </si>
+  <si>
+    <t>Target therapy</t>
   </si>
   <si>
     <t>C0439673</t>
@@ -418,7 +424,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -513,15 +519,23 @@
         <v>44</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-TreatmentType.xlsx
+++ b/output/ValueSet-TreatmentType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T10:39:35+02:00</t>
+    <t>2023-05-04T16:19:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-TreatmentType.xlsx
+++ b/output/ValueSet-TreatmentType.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T16:19:38+02:00</t>
+    <t>2023-05-04T17:29:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
